--- a/medicine/Enfance/H._C._Bailey/H._C._Bailey.xlsx
+++ b/medicine/Enfance/H._C._Bailey/H._C._Bailey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Christopher Bailey (Londres, 1er février 1878 – Londres, 24 mars 1961), qui signe toujours ses œuvres H. C. Bailey, est un écrivain britannique, surtout connu comme auteur de plusieurs nouvelles et romans policiers ayant pour héros le chirurgien et détective Reggie Fortune.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant ses études supérieures à l'Université d'Oxford, il écrit et publie son premier roman historique intitulé My Lady of Orange (1901). À partir de 1902, il fait paraître à un rythme de plus en plus soutenu une centaine de nouvelles, principalement dans les magazines Adventure Magazine (en), Everybody's Magazine (en) et People’s Magazine. Correspondant de guerre pendant la Première Guerre mondiale, il est, de 1901 à 1946, éditorialiste et critique dramatique pour le quotidien The Daily Telegraph.
 En 1920, il publie Call Mr Fortune, un recueil de nouvelles où apparaît pour la première fois le médecin et détective amateur Reggie Fortune, enquêteur londonien facétieux et fantasque qui n'est pas sans rappeler le Lord Peter Wimsey de Dorothy Sayers. Parmi les nombreuses nouvelles et la dizaine de romans qui sont consacrés à ses enquêtes, il faut citer Terres ennemies (Black Land, White Land, 1937), où le général Duddon, un ami de Reggie Fortune, découvre parmi les débris d'une falaise éboulée ce que le héros identifie comme « des ossements d'éléphants datant de la préhistoire, mais aussi des ossements humains vieux d'une dizaine d'années, sans doute ceux de Charles Tracy, le fils d'un riche propriétaire de la région, disparu sans laisser de traces douze ans plus tôt. En faisant rouvrir l'enquête, Reggie ressuscite les haines séparant les familles Tracy, Aston et Brown » qui habitent les environs. C'est alors qu'un mystérieux assassin élimine le chef de la police locale et kidnappe la fille Tracy. La résolution de l'énigme par Fortune provoque de stupéfiantes révélations historiques.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Reggie Fortune
-Shadow on the Wall (1934), Joshua Clunk fait une brève apparition dans ce roman Publié en français sous le titre L'Ombre sur le mur, traduit par Simone Saint-Clair, Paris, Éditions Rouff, coll. « La Clé » no 15, 1939
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Reggie Fortune</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Shadow on the Wall (1934), Joshua Clunk fait une brève apparition dans ce roman Publié en français sous le titre L'Ombre sur le mur, traduit par Simone Saint-Clair, Paris, Éditions Rouff, coll. « La Clé » no 15, 1939
 Black Land, White Land (1937) Publié en français sous le titre Terres ennemies, traduit par Simone Saint-Clair, Paris, Éditions des Loisirs, coll. Loisirs-Police, 1938 ; réédition, Marcinelle, Éditions J. Dupuis fils, coll. jaune no 78, 1951
 The Great Game (1939), Joshua Clunk fait une brève apparition dans ce roman
 The Bishop's Crime (1940)
@@ -557,9 +579,47 @@
 Mr Fortune Finds a Pig (1943)
 The Cat's Whisker (1944), aussi titré Dead Man's Effects
 The Life Sentence (1946)
-Saving a Rope (1948), aussi titré Save a Rope
-Série policière Joshua Clunk
-Garstons (1930), aussi titré The Garston Murder Case Publié en français sous le titre Les Garstons, Paris, Éditions Le Nouveau Livre, coll. Maîtres détectives no 1, 1931
+Saving a Rope (1948), aussi titré Save a Rope</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série policière Joshua Clunk</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Garstons (1930), aussi titré The Garston Murder Case Publié en français sous le titre Les Garstons, Paris, Éditions Le Nouveau Livre, coll. Maîtres détectives no 1, 1931
 The Red Castle (1932), aussi titré The Red Castle Mystery
 The Sullen Sky Mystery (1935)
 Clunk's Claimant (1937), aussi titré The Twittering Bird Mystery ; Reggie Fortune fait une brève apparition dans ce roman
@@ -569,11 +629,87 @@
 Slippery Ann (1944), aussi titré The Queen of Spades
 The Wrong Man (1946), Reggie Fortune fait une brève apparition dans ce roman
 Honour Among Thieves (1947)
-Shrouded Death (1950)
-Autre roman policier
-The Man in the Cape (1933)
-Romans historiques, d'amour ou d'aventures
-My Lady of Orange (1901)
+Shrouded Death (1950)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autre roman policier</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Man in the Cape (1933)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans historiques, d'amour ou d'aventures</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>My Lady of Orange (1901)
 Karl of Erbach (1903)
 The Master of Gray (1903)
 Rimingtons (1904)
@@ -601,12 +737,83 @@
 Bonaventure (1927)
 Judy Bovenden (1928)
 Mr Cardonnel (1931)
-The Bottle Party (1940)
-Ouvrage de littérature d'enfance et de jeunesse
-The Roman Eagles (1929)
-Recueil de nouvelles
-Série Reggie Fortune
-Call Mr Fortune (1920)
+The Bottle Party (1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Roman Eagles (1929)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Reggie Fortune</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Call Mr Fortune (1920)
 Mr Fortune's Practice (1923)
 Mr Fortune's Trials (1925)
 Mr Fortune, Please (1928)
@@ -617,12 +824,87 @@
 Mr Fortune Objects (1935)
 A Clue for Mr Fortune (1936)
 This is Mr Fortune (1938)
-Mr Fortune Here (1940)
-Autre recueil de nouvelles
-Raoul, a Gentleman of Fortune (1907), aussi titré A Gentleman of Fortune
-Nouvelles
-Série Reggie Fortune
-The Long Dinner (1920) Publié en français sous le titre Conté par le menu, Paris, Opta, Mystère magazine no 88, mai 1955
+Mr Fortune Here (1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autre recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Raoul, a Gentleman of Fortune (1907), aussi titré A Gentleman of Fortune</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Reggie Fortune</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Long Dinner (1920) Publié en français sous le titre Conté par le menu, Paris, Opta, Mystère magazine no 88, mai 1955
 The Magic Stone (1923)
 The Snowball Burglary (1923)
 The Unknown Murderer (1923)
@@ -656,8 +938,47 @@
 The Gypsy Moth (1933)
 The Little Finger (1934)
 The Yellow Slugs (1935)
-The Thistle Down, dans l'anthologie The Queen's Book of the Red Cross (1939) Publié en français sous le titre Le Duvet du chardon, Paris, Opta, Mystère magazine no 19, août 1949
-Autres nouvelles
+The Thistle Down, dans l'anthologie The Queen's Book of the Red Cross (1939) Publié en français sous le titre Le Duvet du chardon, Paris, Opta, Mystère magazine no 19, août 1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Knight of Mayford (1902)
 Sir Albert’s Fall (1902)
 The King’s Way (1902)
@@ -702,38 +1023,109 @@
 The Moor of Milan (1924)
 Under the Fleur-de-Lis (1924)
 Victoria Pumphrey (1939), aussi titré A Matter of Speculation dans Anthology 1968 Mid-Year, éditée par Ellery Queen (1968) Publié en français sous le titre L'Héritier malencontreux, Paris, Opta, L'Anthologie du mystère no 12, novembre 1969
-Théâtre
-The White Hawk (1909), en collaboration avec David Kimball, adaptation du roman Beaujeu de H. C. Bailey
-Autre publication
-Forty Years After: The Story of the Franco-German War, 1870 (1914)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H._C._Bailey</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The White Hawk (1909), en collaboration avec David Kimball, adaptation du roman Beaujeu de H. C. Bailey</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Forty Years After: The Story of the Franco-German War, 1870 (1914)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H._C._Bailey</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Claude Mesplède, Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 137-138.
 Jean Tulard, Dictionnaire du roman policier : 1841-2005. Auteurs, personnages, œuvres, thèmes, collections, éditeurs, Paris, Fayard, 2005, 768 p. (ISBN 978-2-915793-51-2, OCLC 62533410), p. 53-54.</t>
